--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H2">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.47090666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N2">
-        <v>52.41272000000001</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O2">
-        <v>0.9803569739482672</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P2">
-        <v>0.9803569739482673</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q2">
-        <v>208.0081663533956</v>
+        <v>13.163977169152</v>
       </c>
       <c r="R2">
-        <v>1872.07349718056</v>
+        <v>118.475794522368</v>
       </c>
       <c r="S2">
-        <v>0.0087204220227511</v>
+        <v>0.003123590480743441</v>
       </c>
       <c r="T2">
-        <v>0.008720422022751102</v>
+        <v>0.003123590480743442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H3">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I3">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J3">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.49377</v>
       </c>
       <c r="O3">
-        <v>0.009235751608129396</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P3">
-        <v>0.009235751608129398</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q3">
-        <v>1.959604315523333</v>
+        <v>0.7558731559899998</v>
       </c>
       <c r="R3">
-        <v>17.63643883971</v>
+        <v>6.802858403909999</v>
       </c>
       <c r="S3">
-        <v>8.215339295830878E-05</v>
+        <v>0.0001793559928250742</v>
       </c>
       <c r="T3">
-        <v>8.215339295830879E-05</v>
+        <v>0.0001793559928250742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.90597433333333</v>
+        <v>1205.102620666667</v>
       </c>
       <c r="H4">
-        <v>35.717923</v>
+        <v>3615.307862</v>
       </c>
       <c r="I4">
-        <v>0.008895149679642379</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J4">
-        <v>0.008895149679642379</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1854676666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N4">
-        <v>0.556403</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q4">
-        <v>2.208173278996556</v>
+        <v>3454.344715162795</v>
       </c>
       <c r="R4">
-        <v>19.873559510969</v>
+        <v>31089.10243646515</v>
       </c>
       <c r="S4">
-        <v>9.257426393296858E-05</v>
+        <v>0.8196579294268096</v>
       </c>
       <c r="T4">
-        <v>9.257426393296855E-05</v>
+        <v>0.8196579294268097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>3615.307862</v>
       </c>
       <c r="I5">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J5">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>17.47090666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N5">
-        <v>52.41272000000001</v>
+        <v>0.49377</v>
       </c>
       <c r="O5">
-        <v>0.9803569739482672</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P5">
-        <v>0.9803569739482673</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q5">
-        <v>21054.23540942274</v>
+        <v>198.3478403355267</v>
       </c>
       <c r="R5">
-        <v>189488.1186848047</v>
+        <v>1785.13056301974</v>
       </c>
       <c r="S5">
-        <v>0.8826663940904402</v>
+        <v>0.04706460805780797</v>
       </c>
       <c r="T5">
-        <v>0.8826663940904402</v>
+        <v>0.04706460805780797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1205.102620666667</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H6">
-        <v>3615.307862</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I6">
-        <v>0.9003520325209805</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J6">
-        <v>0.9003520325209804</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16459</v>
+        <v>2.866432</v>
       </c>
       <c r="N6">
-        <v>0.49377</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O6">
-        <v>0.009235751608129396</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P6">
-        <v>0.009235751608129398</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q6">
-        <v>198.3478403355267</v>
+        <v>518.0167391261012</v>
       </c>
       <c r="R6">
-        <v>1785.13056301974</v>
+        <v>4662.150652134912</v>
       </c>
       <c r="S6">
-        <v>0.008315427732238216</v>
+        <v>0.1229166637413944</v>
       </c>
       <c r="T6">
-        <v>0.008315427732238216</v>
+        <v>0.1229166637413944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1205.102620666667</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H7">
-        <v>3615.307862</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I7">
-        <v>0.9003520325209805</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J7">
-        <v>0.9003520325209804</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854676666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N7">
-        <v>0.556403</v>
+        <v>0.49377</v>
       </c>
       <c r="O7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q7">
-        <v>223.5075711489318</v>
+        <v>29.74442620399333</v>
       </c>
       <c r="R7">
-        <v>2011.568140340386</v>
+        <v>267.69983583594</v>
       </c>
       <c r="S7">
-        <v>0.009370210698301925</v>
+        <v>0.007057852300419512</v>
       </c>
       <c r="T7">
-        <v>0.009370210698301922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>121.4707743333333</v>
-      </c>
-      <c r="H8">
-        <v>364.412323</v>
-      </c>
-      <c r="I8">
-        <v>0.09075281779937723</v>
-      </c>
-      <c r="J8">
-        <v>0.09075281779937722</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.47090666666667</v>
-      </c>
-      <c r="N8">
-        <v>52.41272000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9803569739482672</v>
-      </c>
-      <c r="P8">
-        <v>0.9803569739482673</v>
-      </c>
-      <c r="Q8">
-        <v>2122.204561105396</v>
-      </c>
-      <c r="R8">
-        <v>19099.84104994856</v>
-      </c>
-      <c r="S8">
-        <v>0.08897015783507591</v>
-      </c>
-      <c r="T8">
-        <v>0.08897015783507589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>121.4707743333333</v>
-      </c>
-      <c r="H9">
-        <v>364.412323</v>
-      </c>
-      <c r="I9">
-        <v>0.09075281779937723</v>
-      </c>
-      <c r="J9">
-        <v>0.09075281779937722</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.16459</v>
-      </c>
-      <c r="N9">
-        <v>0.49377</v>
-      </c>
-      <c r="O9">
-        <v>0.009235751608129396</v>
-      </c>
-      <c r="P9">
-        <v>0.009235751608129398</v>
-      </c>
-      <c r="Q9">
-        <v>19.99287474752333</v>
-      </c>
-      <c r="R9">
-        <v>179.93587272771</v>
-      </c>
-      <c r="S9">
-        <v>0.0008381704829328724</v>
-      </c>
-      <c r="T9">
-        <v>0.0008381704829328724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>121.4707743333333</v>
-      </c>
-      <c r="H10">
-        <v>364.412323</v>
-      </c>
-      <c r="I10">
-        <v>0.09075281779937723</v>
-      </c>
-      <c r="J10">
-        <v>0.09075281779937722</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1854676666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556403</v>
-      </c>
-      <c r="O10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="P10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="Q10">
-        <v>22.52890108379656</v>
-      </c>
-      <c r="R10">
-        <v>202.760109754169</v>
-      </c>
-      <c r="S10">
-        <v>0.0009444894813684491</v>
-      </c>
-      <c r="T10">
-        <v>0.0009444894813684488</v>
+        <v>0.007057852300419515</v>
       </c>
     </row>
   </sheetData>
